--- a/prep_and_checklists/Leila Benirschke Day 2/Leila Benirschke Day 2_2025-05-02_0.xlsx
+++ b/prep_and_checklists/Leila Benirschke Day 2/Leila Benirschke Day 2_2025-05-02_0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcuvin/purveyor_project/prep_and_checklists/Leila Benirschke Day 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A8A036-0827-7246-926C-74CEFD5B5BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847F4ED9-CD9A-AE41-84E6-B1B874DE8519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2240" yWindow="1520" windowWidth="30240" windowHeight="17860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prep_sheet" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="91">
   <si>
     <t>Seasonal Fruit</t>
   </si>
@@ -125,9 +125,6 @@
     <t>Purveyor</t>
   </si>
   <si>
-    <t>Seasonal fruits for sliced fruit plate</t>
-  </si>
-  <si>
     <t>Baldor</t>
   </si>
   <si>
@@ -227,6 +224,9 @@
     <t>2 quarts</t>
   </si>
   <si>
+    <t>2x loaves</t>
+  </si>
+  <si>
     <t>2 x loaves</t>
   </si>
   <si>
@@ -261,6 +261,39 @@
   </si>
   <si>
     <t>Leila Benirschke Day 2 20 Guests  Friday, May 9, 2025 6:00 pm 8:00 pm</t>
+  </si>
+  <si>
+    <t>Seasonal fruits for fruit salad</t>
+  </si>
+  <si>
+    <t>pineapple, melons, grapes</t>
+  </si>
+  <si>
+    <t>1 flat</t>
+  </si>
+  <si>
+    <t>* in-house</t>
+  </si>
+  <si>
+    <t>*in-house</t>
+  </si>
+  <si>
+    <t>12 ct</t>
+  </si>
+  <si>
+    <t>1 lb</t>
+  </si>
+  <si>
+    <t>5 lbs</t>
+  </si>
+  <si>
+    <t>1 cs</t>
+  </si>
+  <si>
+    <t>2x sides</t>
+  </si>
+  <si>
+    <t>1 pc</t>
   </si>
 </sst>
 </file>
@@ -662,9 +695,7 @@
   </sheetPr>
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -695,7 +726,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -715,7 +746,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -723,7 +754,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -731,7 +762,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -739,7 +770,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -747,7 +778,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -755,7 +786,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -796,7 +827,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -804,7 +835,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -992,7 +1023,7 @@
         <v>30</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1003,12 +1034,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:C28"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="56.83203125" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="39" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
     <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>31</v>
@@ -1022,236 +1065,288 @@
     </row>
     <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="C4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="C5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="C6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="C7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="C8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="C9" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="C10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="C13" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="C15" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="C16" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="C17" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="C18" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="C19" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="C20" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="C21" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="3"/>
+        <v>57</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="C23" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="C24" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="C25" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="C26" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="C27" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="C28" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
